--- a/diagrams/Diagrama de GAANT.xlsx
+++ b/diagrams/Diagrama de GAANT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlwat\Dropbox (Personal)\Client Folders\Microsoft\Microsoft Office Template Project\02_Template Sent for MS Review\Rapid Refresh Batch B78\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB49646-5E96-4719-BFA5-F98BDCA1B711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8D1969-176E-4F03-8CC0-C198701D3270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project schedule'!$4:$6</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Implementação do Sistema de Bases de Dados</t>
   </si>
@@ -169,6 +169,24 @@
   </si>
   <si>
     <t>Povoamento da Base de Dados</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de Queries</t>
+  </si>
+  <si>
+    <t>Estabelecimento de um Plano de Indexação</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de Conjunto de Procedimentos</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de um Sistema de Dashboarding</t>
+  </si>
+  <si>
+    <t>Análise Crítica do Trabalho</t>
   </si>
   <si>
     <t>Insert new rows ABOVE this one</t>
@@ -449,7 +467,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +549,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,7 +854,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1111,18 +1141,12 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="21" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="13" borderId="21" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="165" fontId="17" fillId="13" borderId="21" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="13" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="165" fontId="17" fillId="13" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1134,6 +1158,45 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="15" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="16" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="16" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="13" borderId="21" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="13" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1184,7 +1247,69 @@
     <cellStyle name="Vírgula" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1443,15 +1568,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="lastColumn" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
+      <tableStyleElement type="lastColumn" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1806,10 +1931,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL38"/>
+  <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
@@ -1827,37 +1952,37 @@
   <sheetData>
     <row r="1" spans="1:64" ht="46.5" customHeight="1">
       <c r="A1" s="14"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="115">
+      <c r="Q1" s="126">
         <f>DATEVALUE("2023/9/18")</f>
         <v>45187</v>
       </c>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1">
       <c r="B2" s="81" t="s">
@@ -1867,28 +1992,28 @@
       <c r="D2" s="18"/>
       <c r="E2" s="19"/>
       <c r="F2" s="18"/>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="114">
+      <c r="Q2" s="125">
         <v>1</v>
       </c>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
     </row>
     <row r="3" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="13"/>
@@ -1900,102 +2025,102 @@
       <c r="A4" s="14"/>
       <c r="B4" s="25"/>
       <c r="E4" s="26"/>
-      <c r="I4" s="120">
+      <c r="I4" s="131">
         <f>I5</f>
         <v>45187</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118">
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129">
         <f>P5</f>
         <v>45194</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118">
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129">
         <f>W5</f>
         <v>45201</v>
       </c>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118">
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129">
         <f>AD5</f>
         <v>45208</v>
       </c>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118">
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129">
         <f>AK5</f>
         <v>45215</v>
       </c>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118">
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="129">
         <f>AR5</f>
         <v>45222</v>
       </c>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118">
+      <c r="AS4" s="129"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
+      <c r="AX4" s="129"/>
+      <c r="AY4" s="129">
         <f>AY5</f>
         <v>45229</v>
       </c>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118">
+      <c r="AZ4" s="129"/>
+      <c r="BA4" s="129"/>
+      <c r="BB4" s="129"/>
+      <c r="BC4" s="129"/>
+      <c r="BD4" s="129"/>
+      <c r="BE4" s="129"/>
+      <c r="BF4" s="129">
         <f>BF5</f>
         <v>45236</v>
       </c>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="119"/>
+      <c r="BG4" s="129"/>
+      <c r="BH4" s="129"/>
+      <c r="BI4" s="129"/>
+      <c r="BJ4" s="129"/>
+      <c r="BK4" s="129"/>
+      <c r="BL4" s="130"/>
     </row>
     <row r="5" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="124" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="27">
@@ -2224,12 +2349,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
       <c r="I6" s="30" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>s</v>
@@ -2536,7 +2661,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="17"/>
       <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H35" ca="1" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H42" ca="1" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="41"/>
@@ -2929,7 +3054,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="48">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E13" s="49">
         <f>E10+1</f>
@@ -3032,13 +3157,13 @@
         <v>45201</v>
       </c>
       <c r="F15" s="59">
-        <f>E15+4</f>
-        <v>45205</v>
+        <f>E15</f>
+        <v>45201</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
@@ -3109,17 +3234,17 @@
         <v>1</v>
       </c>
       <c r="E16" s="59">
-        <f>E15+2</f>
-        <v>45203</v>
+        <f>F15</f>
+        <v>45201</v>
       </c>
       <c r="F16" s="59">
-        <f>E16+5</f>
-        <v>45208</v>
+        <f>E16+3</f>
+        <v>45204</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
@@ -3191,11 +3316,11 @@
       </c>
       <c r="E17" s="59">
         <f>F16</f>
-        <v>45208</v>
+        <v>45204</v>
       </c>
       <c r="F17" s="59">
         <f>E17+3</f>
-        <v>45211</v>
+        <v>45207</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5">
@@ -3272,16 +3397,16 @@
       </c>
       <c r="E18" s="59">
         <f>E17</f>
-        <v>45208</v>
+        <v>45204</v>
       </c>
       <c r="F18" s="59">
-        <f>E18+2</f>
-        <v>45210</v>
+        <f>E18+5</f>
+        <v>45209</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
@@ -3352,17 +3477,17 @@
         <v>0.8</v>
       </c>
       <c r="E19" s="59">
-        <f>E18</f>
-        <v>45208</v>
+        <f>E18+3</f>
+        <v>45207</v>
       </c>
       <c r="F19" s="59">
-        <f>E19+6</f>
+        <f>E19+7</f>
         <v>45214</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
@@ -3508,13 +3633,13 @@
         <v>45215</v>
       </c>
       <c r="F21" s="69">
-        <f>E21+5</f>
-        <v>45220</v>
+        <f>E21+2</f>
+        <v>45217</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
@@ -3585,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="69">
-        <f>F21-2</f>
+        <f>F21+1</f>
         <v>45218</v>
       </c>
       <c r="F22" s="69">
@@ -3747,12 +3872,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="69">
-        <f>F23+1</f>
-        <v>45226</v>
+        <f>E23+2</f>
+        <v>45222</v>
       </c>
       <c r="F24" s="69">
         <f>E24+4</f>
-        <v>45230</v>
+        <v>45226</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5">
@@ -3825,20 +3950,20 @@
         <v>21</v>
       </c>
       <c r="D25" s="68">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E25" s="69">
-        <f>E23</f>
-        <v>45220</v>
+        <f>E24+2</f>
+        <v>45224</v>
       </c>
       <c r="F25" s="69">
-        <f>E25+13</f>
+        <f>E25+9</f>
         <v>45233</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
@@ -3903,7 +4028,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
+      <c r="D26" s="119"/>
       <c r="E26" s="70"/>
       <c r="F26" s="70"/>
       <c r="G26" s="17"/>
@@ -4054,7 +4179,7 @@
       <c r="B28" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="107" t="s">
+      <c r="C28" s="105" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="74">
@@ -4142,17 +4267,17 @@
         <v>0</v>
       </c>
       <c r="E29" s="98">
-        <f>F28+1</f>
-        <v>45242</v>
+        <f>E28+3</f>
+        <v>45240</v>
       </c>
       <c r="F29" s="98">
-        <f>E29+3</f>
-        <v>45245</v>
+        <f>E29+6</f>
+        <v>45246</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I29" s="46"/>
       <c r="J29" s="46"/>
@@ -4217,7 +4342,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
+      <c r="D30" s="120"/>
       <c r="E30" s="100"/>
       <c r="F30" s="100"/>
       <c r="G30" s="17"/>
@@ -4287,23 +4412,23 @@
       <c r="B31" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="108" t="s">
+      <c r="C31" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="102">
+      <c r="D31" s="117">
         <v>0</v>
       </c>
-      <c r="E31" s="103">
-        <f>E27+10</f>
-        <v>45244</v>
-      </c>
-      <c r="F31" s="103">
+      <c r="E31" s="102">
+        <f>F29+1</f>
+        <v>45247</v>
+      </c>
+      <c r="F31" s="102">
         <f>E31+3</f>
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="46"/>
+      <c r="I31" s="115"/>
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
       <c r="L31" s="46"/>
@@ -4365,19 +4490,19 @@
       <c r="B32" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="108" t="s">
+      <c r="C32" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="102">
+      <c r="D32" s="117">
         <v>0</v>
       </c>
-      <c r="E32" s="103">
-        <f>F31</f>
-        <v>45247</v>
-      </c>
-      <c r="F32" s="103">
-        <f>E32+4</f>
-        <v>45251</v>
+      <c r="E32" s="102">
+        <f>E31+2</f>
+        <v>45249</v>
+      </c>
+      <c r="F32" s="102">
+        <f>E32+6</f>
+        <v>45255</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="5"/>
@@ -4440,22 +4565,22 @@
     </row>
     <row r="33" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="13"/>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="105">
+      <c r="D33" s="118">
         <v>0</v>
       </c>
-      <c r="E33" s="106">
-        <f>F32+1</f>
-        <v>45252</v>
-      </c>
-      <c r="F33" s="106">
-        <f>E33+3</f>
+      <c r="E33" s="104">
+        <f>F32</f>
         <v>45255</v>
+      </c>
+      <c r="F33" s="104">
+        <f>E33+6</f>
+        <v>45261</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="5"/>
@@ -4518,94 +4643,501 @@
     </row>
     <row r="34" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="13"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
+      <c r="B34" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="108"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
       <c r="G34" s="17"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="112" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="113">
+        <v>0</v>
+      </c>
+      <c r="E35" s="114">
+        <f>E33+1</f>
+        <v>45256</v>
+      </c>
+      <c r="F35" s="114">
+        <f>E35+8</f>
+        <v>45264</v>
+      </c>
       <c r="G35" s="17"/>
-      <c r="H35" s="6" t="str">
+      <c r="H35" s="5"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="115"/>
+      <c r="S35" s="115"/>
+      <c r="T35" s="115"/>
+      <c r="U35" s="115"/>
+      <c r="V35" s="115"/>
+      <c r="W35" s="115"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="115"/>
+      <c r="Z35" s="115"/>
+      <c r="AA35" s="115"/>
+      <c r="AB35" s="115"/>
+      <c r="AC35" s="115"/>
+      <c r="AD35" s="115"/>
+      <c r="AE35" s="115"/>
+      <c r="AF35" s="115"/>
+      <c r="AG35" s="115"/>
+      <c r="AH35" s="115"/>
+      <c r="AI35" s="115"/>
+      <c r="AJ35" s="115"/>
+      <c r="AK35" s="115"/>
+      <c r="AL35" s="115"/>
+      <c r="AM35" s="115"/>
+      <c r="AN35" s="115"/>
+      <c r="AO35" s="115"/>
+      <c r="AP35" s="115"/>
+      <c r="AQ35" s="115"/>
+      <c r="AR35" s="115"/>
+      <c r="AS35" s="115"/>
+      <c r="AT35" s="115"/>
+      <c r="AU35" s="115"/>
+      <c r="AV35" s="115"/>
+      <c r="AW35" s="115"/>
+      <c r="AX35" s="115"/>
+      <c r="AY35" s="115"/>
+      <c r="AZ35" s="115"/>
+      <c r="BA35" s="115"/>
+      <c r="BB35" s="115"/>
+      <c r="BC35" s="115"/>
+      <c r="BD35" s="115"/>
+      <c r="BE35" s="115"/>
+      <c r="BF35" s="115"/>
+      <c r="BG35" s="115"/>
+      <c r="BH35" s="115"/>
+      <c r="BI35" s="115"/>
+      <c r="BJ35" s="115"/>
+      <c r="BK35" s="115"/>
+      <c r="BL35" s="115"/>
+    </row>
+    <row r="36" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="112" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="113">
+        <v>0</v>
+      </c>
+      <c r="E36" s="114">
+        <f>F35+1</f>
+        <v>45265</v>
+      </c>
+      <c r="F36" s="114">
+        <f>E36+5</f>
+        <v>45270</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="115"/>
+      <c r="R36" s="115"/>
+      <c r="S36" s="115"/>
+      <c r="T36" s="115"/>
+      <c r="U36" s="115"/>
+      <c r="V36" s="115"/>
+      <c r="W36" s="115"/>
+      <c r="X36" s="115"/>
+      <c r="Y36" s="115"/>
+      <c r="Z36" s="115"/>
+      <c r="AA36" s="115"/>
+      <c r="AB36" s="115"/>
+      <c r="AC36" s="115"/>
+      <c r="AD36" s="115"/>
+      <c r="AE36" s="115"/>
+      <c r="AF36" s="115"/>
+      <c r="AG36" s="115"/>
+      <c r="AH36" s="115"/>
+      <c r="AI36" s="115"/>
+      <c r="AJ36" s="115"/>
+      <c r="AK36" s="115"/>
+      <c r="AL36" s="115"/>
+      <c r="AM36" s="115"/>
+      <c r="AN36" s="115"/>
+      <c r="AO36" s="115"/>
+      <c r="AP36" s="115"/>
+      <c r="AQ36" s="115"/>
+      <c r="AR36" s="115"/>
+      <c r="AS36" s="115"/>
+      <c r="AT36" s="115"/>
+      <c r="AU36" s="115"/>
+      <c r="AV36" s="115"/>
+      <c r="AW36" s="115"/>
+      <c r="AX36" s="115"/>
+      <c r="AY36" s="115"/>
+      <c r="AZ36" s="115"/>
+      <c r="BA36" s="115"/>
+      <c r="BB36" s="115"/>
+      <c r="BC36" s="115"/>
+      <c r="BD36" s="115"/>
+      <c r="BE36" s="115"/>
+      <c r="BF36" s="115"/>
+      <c r="BG36" s="115"/>
+      <c r="BH36" s="115"/>
+      <c r="BI36" s="115"/>
+      <c r="BJ36" s="115"/>
+      <c r="BK36" s="115"/>
+      <c r="BL36" s="115"/>
+    </row>
+    <row r="37" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="112" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="113">
+        <v>0</v>
+      </c>
+      <c r="E37" s="114">
+        <f>F36</f>
+        <v>45270</v>
+      </c>
+      <c r="F37" s="114">
+        <f>E37+3</f>
+        <v>45273</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="115"/>
+      <c r="Q37" s="115"/>
+      <c r="R37" s="115"/>
+      <c r="S37" s="115"/>
+      <c r="T37" s="115"/>
+      <c r="U37" s="115"/>
+      <c r="V37" s="115"/>
+      <c r="W37" s="115"/>
+      <c r="X37" s="115"/>
+      <c r="Y37" s="115"/>
+      <c r="Z37" s="115"/>
+      <c r="AA37" s="115"/>
+      <c r="AB37" s="115"/>
+      <c r="AC37" s="115"/>
+      <c r="AD37" s="115"/>
+      <c r="AE37" s="115"/>
+      <c r="AF37" s="115"/>
+      <c r="AG37" s="115"/>
+      <c r="AH37" s="115"/>
+      <c r="AI37" s="115"/>
+      <c r="AJ37" s="115"/>
+      <c r="AK37" s="115"/>
+      <c r="AL37" s="115"/>
+      <c r="AM37" s="115"/>
+      <c r="AN37" s="115"/>
+      <c r="AO37" s="115"/>
+      <c r="AP37" s="115"/>
+      <c r="AQ37" s="115"/>
+      <c r="AR37" s="115"/>
+      <c r="AS37" s="115"/>
+      <c r="AT37" s="115"/>
+      <c r="AU37" s="115"/>
+      <c r="AV37" s="115"/>
+      <c r="AW37" s="115"/>
+      <c r="AX37" s="115"/>
+      <c r="AY37" s="115"/>
+      <c r="AZ37" s="115"/>
+      <c r="BA37" s="115"/>
+      <c r="BB37" s="115"/>
+      <c r="BC37" s="115"/>
+      <c r="BD37" s="115"/>
+      <c r="BE37" s="115"/>
+      <c r="BF37" s="115"/>
+      <c r="BG37" s="115"/>
+      <c r="BH37" s="115"/>
+      <c r="BI37" s="115"/>
+      <c r="BJ37" s="115"/>
+      <c r="BK37" s="115"/>
+      <c r="BL37" s="115"/>
+    </row>
+    <row r="38" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="112" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="113">
+        <v>0</v>
+      </c>
+      <c r="E38" s="114">
+        <f>E37+1</f>
+        <v>45271</v>
+      </c>
+      <c r="F38" s="114">
+        <f>E38+3</f>
+        <v>45274</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="115"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="115"/>
+      <c r="R38" s="115"/>
+      <c r="S38" s="115"/>
+      <c r="T38" s="115"/>
+      <c r="U38" s="115"/>
+      <c r="V38" s="115"/>
+      <c r="W38" s="115"/>
+      <c r="X38" s="115"/>
+      <c r="Y38" s="115"/>
+      <c r="Z38" s="115"/>
+      <c r="AA38" s="115"/>
+      <c r="AB38" s="115"/>
+      <c r="AC38" s="115"/>
+      <c r="AD38" s="115"/>
+      <c r="AE38" s="115"/>
+      <c r="AF38" s="115"/>
+      <c r="AG38" s="115"/>
+      <c r="AH38" s="115"/>
+      <c r="AI38" s="115"/>
+      <c r="AJ38" s="115"/>
+      <c r="AK38" s="115"/>
+      <c r="AL38" s="115"/>
+      <c r="AM38" s="115"/>
+      <c r="AN38" s="115"/>
+      <c r="AO38" s="115"/>
+      <c r="AP38" s="115"/>
+      <c r="AQ38" s="115"/>
+      <c r="AR38" s="115"/>
+      <c r="AS38" s="115"/>
+      <c r="AT38" s="115"/>
+      <c r="AU38" s="115"/>
+      <c r="AV38" s="115"/>
+      <c r="AW38" s="115"/>
+      <c r="AX38" s="115"/>
+      <c r="AY38" s="115"/>
+      <c r="AZ38" s="115"/>
+      <c r="BA38" s="115"/>
+      <c r="BB38" s="115"/>
+      <c r="BC38" s="115"/>
+      <c r="BD38" s="115"/>
+      <c r="BE38" s="115"/>
+      <c r="BF38" s="115"/>
+      <c r="BG38" s="115"/>
+      <c r="BH38" s="115"/>
+      <c r="BI38" s="115"/>
+      <c r="BJ38" s="115"/>
+      <c r="BK38" s="115"/>
+      <c r="BL38" s="115"/>
+    </row>
+    <row r="39" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="113">
+        <v>0</v>
+      </c>
+      <c r="E39" s="114">
+        <f>F38</f>
+        <v>45274</v>
+      </c>
+      <c r="F39" s="114">
+        <f>E39+3</f>
+        <v>45277</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="115"/>
+      <c r="R39" s="115"/>
+      <c r="S39" s="115"/>
+      <c r="T39" s="115"/>
+      <c r="U39" s="115"/>
+      <c r="V39" s="115"/>
+      <c r="W39" s="115"/>
+      <c r="X39" s="115"/>
+      <c r="Y39" s="115"/>
+      <c r="Z39" s="115"/>
+      <c r="AA39" s="115"/>
+      <c r="AB39" s="115"/>
+      <c r="AC39" s="115"/>
+      <c r="AD39" s="115"/>
+      <c r="AE39" s="115"/>
+      <c r="AF39" s="115"/>
+      <c r="AG39" s="115"/>
+      <c r="AH39" s="115"/>
+      <c r="AI39" s="115"/>
+      <c r="AJ39" s="115"/>
+      <c r="AK39" s="115"/>
+      <c r="AL39" s="115"/>
+      <c r="AM39" s="115"/>
+      <c r="AN39" s="115"/>
+      <c r="AO39" s="115"/>
+      <c r="AP39" s="115"/>
+      <c r="AQ39" s="115"/>
+      <c r="AR39" s="115"/>
+      <c r="AS39" s="115"/>
+      <c r="AT39" s="115"/>
+      <c r="AU39" s="115"/>
+      <c r="AV39" s="115"/>
+      <c r="AW39" s="115"/>
+      <c r="AX39" s="115"/>
+      <c r="AY39" s="115"/>
+      <c r="AZ39" s="115"/>
+      <c r="BA39" s="115"/>
+      <c r="BB39" s="115"/>
+      <c r="BC39" s="115"/>
+      <c r="BD39" s="115"/>
+      <c r="BE39" s="115"/>
+      <c r="BF39" s="115"/>
+      <c r="BG39" s="115"/>
+      <c r="BH39" s="115"/>
+      <c r="BI39" s="115"/>
+      <c r="BJ39" s="115"/>
+      <c r="BK39" s="115"/>
+      <c r="BL39" s="115"/>
+    </row>
+    <row r="40" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1">
+      <c r="A40" s="13"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1">
+      <c r="A42" s="14"/>
+      <c r="B42" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="80"/>
-      <c r="Y35" s="80"/>
-      <c r="Z35" s="80"/>
-      <c r="AA35" s="80"/>
-      <c r="AB35" s="80"/>
-      <c r="AC35" s="80"/>
-      <c r="AD35" s="80"/>
-      <c r="AE35" s="80"/>
-      <c r="AF35" s="80"/>
-      <c r="AG35" s="80"/>
-      <c r="AH35" s="80"/>
-      <c r="AI35" s="80"/>
-      <c r="AJ35" s="80"/>
-      <c r="AK35" s="80"/>
-      <c r="AL35" s="80"/>
-      <c r="AM35" s="80"/>
-      <c r="AN35" s="80"/>
-      <c r="AO35" s="80"/>
-      <c r="AP35" s="80"/>
-      <c r="AQ35" s="80"/>
-      <c r="AR35" s="80"/>
-      <c r="AS35" s="80"/>
-      <c r="AT35" s="80"/>
-      <c r="AU35" s="80"/>
-      <c r="AV35" s="80"/>
-      <c r="AW35" s="80"/>
-      <c r="AX35" s="80"/>
-      <c r="AY35" s="80"/>
-      <c r="AZ35" s="80"/>
-      <c r="BA35" s="80"/>
-      <c r="BB35" s="80"/>
-      <c r="BC35" s="80"/>
-      <c r="BD35" s="80"/>
-      <c r="BE35" s="80"/>
-      <c r="BF35" s="80"/>
-      <c r="BG35" s="80"/>
-      <c r="BH35" s="80"/>
-      <c r="BI35" s="80"/>
-      <c r="BJ35" s="80"/>
-      <c r="BK35" s="80"/>
-      <c r="BL35" s="80"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1">
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1">
-      <c r="C37" s="16"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1">
-      <c r="C38" s="4"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="80"/>
+      <c r="Q42" s="80"/>
+      <c r="R42" s="80"/>
+      <c r="S42" s="80"/>
+      <c r="T42" s="80"/>
+      <c r="U42" s="80"/>
+      <c r="V42" s="80"/>
+      <c r="W42" s="80"/>
+      <c r="X42" s="80"/>
+      <c r="Y42" s="80"/>
+      <c r="Z42" s="80"/>
+      <c r="AA42" s="80"/>
+      <c r="AB42" s="80"/>
+      <c r="AC42" s="80"/>
+      <c r="AD42" s="80"/>
+      <c r="AE42" s="80"/>
+      <c r="AF42" s="80"/>
+      <c r="AG42" s="80"/>
+      <c r="AH42" s="80"/>
+      <c r="AI42" s="80"/>
+      <c r="AJ42" s="80"/>
+      <c r="AK42" s="80"/>
+      <c r="AL42" s="80"/>
+      <c r="AM42" s="80"/>
+      <c r="AN42" s="80"/>
+      <c r="AO42" s="80"/>
+      <c r="AP42" s="80"/>
+      <c r="AQ42" s="80"/>
+      <c r="AR42" s="80"/>
+      <c r="AS42" s="80"/>
+      <c r="AT42" s="80"/>
+      <c r="AU42" s="80"/>
+      <c r="AV42" s="80"/>
+      <c r="AW42" s="80"/>
+      <c r="AX42" s="80"/>
+      <c r="AY42" s="80"/>
+      <c r="AZ42" s="80"/>
+      <c r="BA42" s="80"/>
+      <c r="BB42" s="80"/>
+      <c r="BC42" s="80"/>
+      <c r="BD42" s="80"/>
+      <c r="BE42" s="80"/>
+      <c r="BF42" s="80"/>
+      <c r="BG42" s="80"/>
+      <c r="BH42" s="80"/>
+      <c r="BI42" s="80"/>
+      <c r="BJ42" s="80"/>
+      <c r="BK42" s="80"/>
+      <c r="BL42" s="80"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1">
+      <c r="C44" s="16"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:64" ht="30" customHeight="1">
+      <c r="C45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -4629,8 +5161,8 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D34:D35 D7">
-    <cfRule type="dataBar" priority="36">
+  <conditionalFormatting sqref="D41:D42 D7 D34:D39">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4644,39 +5176,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BL13">
-    <cfRule type="expression" dxfId="10" priority="19">
+    <cfRule type="expression" dxfId="14" priority="25">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL19">
-    <cfRule type="expression" dxfId="8" priority="17">
+    <cfRule type="expression" dxfId="12" priority="23">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="24" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BL25">
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="10" priority="21">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="22" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL29">
-    <cfRule type="expression" dxfId="4" priority="49">
+    <cfRule type="expression" dxfId="8" priority="55">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="56" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D29">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4690,7 +5222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D33">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4704,7 +5236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4718,18 +5250,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL33">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL33">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL33">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL39">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL39">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL39">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BL39">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
@@ -4747,7 +5299,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A14" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A20" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A26" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A35" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A42" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -4771,7 +5323,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34:D35 D7</xm:sqref>
+          <xm:sqref>D41:D42 D7 D34:D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA935889-4FF9-4BD1-9B6F-55A1435A7ABA}">
@@ -4839,7 +5391,7 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
     <row r="2" spans="1:2" s="9" customFormat="1" ht="15.6">
       <c r="A2" s="83" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2" s="8"/>
     </row>
@@ -4849,67 +5401,67 @@
     </row>
     <row r="4" spans="1:2" s="10" customFormat="1" ht="30">
       <c r="A4" s="85" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.25" customHeight="1">
       <c r="A5" s="86" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1">
       <c r="A6" s="85" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1" ht="205.15" customHeight="1">
       <c r="A7" s="87" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="10" customFormat="1" ht="30">
       <c r="A8" s="85" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="41.45">
       <c r="A9" s="86" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="7" customFormat="1" ht="28.15" customHeight="1">
       <c r="A10" s="88" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="10" customFormat="1" ht="30">
       <c r="A11" s="85" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27.6">
       <c r="A12" s="86" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" ht="28.15" customHeight="1">
       <c r="A13" s="88" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="10" customFormat="1" ht="30">
       <c r="A14" s="85" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1">
       <c r="A15" s="86" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="69">
       <c r="A16" s="86" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4949,35 +5501,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5289,16 +5812,45 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
